--- a/Plantilla_Carga_Equipos.xlsx
+++ b/Plantilla_Carga_Equipos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\project-bolt-sb1-qnazhgui\project\Administracio_gestion_precios_nuevo\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A251F0F-4B1F-4DAF-A399-9BF674BECBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90387F1-E0FE-44A6-90C6-ECC45C72E1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,13 @@
     <t>costo fabrica</t>
   </si>
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
     <t>producto</t>
   </si>
   <si>
     <t>fecha_cotizacion</t>
+  </si>
+  <si>
+    <t>modelo</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,16 +502,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>

--- a/Plantilla_Carga_Equipos.xlsx
+++ b/Plantilla_Carga_Equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90387F1-E0FE-44A6-90C6-ECC45C72E1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DD6EA-7118-426B-80CB-F4A9D0C7C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>peso_kg</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>modelo</t>
+  </si>
+  <si>
+    <t>asignacion</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,39 +462,39 @@
     <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="20.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="14.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="16.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.88671875" style="1"/>
-    <col min="19" max="19" width="30.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="29" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="25.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="30.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="22.21875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="24.21875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.88671875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="26.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="20.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="14.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="30.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="29" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.21875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="25.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22.21875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="24.21875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="25.44140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="16.88671875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="26.88671875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="21.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -508,28 +511,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -556,8 +562,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -569,8 +576,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -582,8 +590,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -594,6 +603,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantilla_Carga_Equipos.xlsx
+++ b/Plantilla_Carga_Equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DD6EA-7118-426B-80CB-F4A9D0C7C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE75DEF-5A58-4DC9-A2F8-0701776DBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,13 +127,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -141,8 +169,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -450,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +531,7 @@
     <col min="36" max="36" width="21.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -536,19 +573,19 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -565,45 +602,244 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantilla_Carga_Equipos.xlsx
+++ b/Plantilla_Carga_Equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claud\Downloads\Proyecto 5\Proyecto-5.-Aplicaci-n-web-con-REACT-fe8e80b86340def5a377d19a3354b0420662f49b\Proyecto-5 REACT API\MCS_ERP_BACKEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE75DEF-5A58-4DC9-A2F8-0701776DBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880507A2-E083-4341-989C-9CDFAB3D5B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>peso_kg</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>asignacion</t>
+  </si>
+  <si>
+    <t>fabricante</t>
   </si>
 </sst>
 </file>
@@ -487,51 +490,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="20.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="14.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="30.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="29" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.21875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
-    <col min="27" max="27" width="25.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="22.21875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="24.21875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="25.44140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="16.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="26.88671875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="21.21875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="20.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="16.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="30.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="29" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.21875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19.21875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="25.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="30.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="22.21875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="24.21875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="25.44140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.88671875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="26.88671875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="21.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -542,37 +545,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -586,7 +592,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -600,8 +606,9 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -614,9 +621,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -629,9 +637,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -643,10 +652,11 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -660,8 +670,9 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -675,8 +686,9 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -690,8 +702,9 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -705,8 +718,9 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -720,8 +734,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -735,8 +750,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -750,8 +766,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -765,8 +782,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -780,8 +798,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -795,8 +814,9 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -810,8 +830,9 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -825,8 +846,9 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -840,6 +862,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
